--- a/products_cashback.xlsx
+++ b/products_cashback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,166 +723,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ноутбук Lenovo IdeaPad Slim 3 15IRU8 Gray</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>50 800 ₽</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8 128</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ноутбук Apple MacBook Air 15 15.3" 2023 M2 8/512GB Midnight</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>157 950 ₽</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15 795</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ноутбук Honor MagicBook X16 2024 Gray (5301AHGW)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>66 190 ₽</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10 591</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ноутбук Honor MagicBook X16 2024 DOS Gray (5301AHHP)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>55 790 ₽</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5 579</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Ноутбук Huawei MateBook D15 BoM-WFP9 Silver (53013TUE)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>52 990 ₽</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ноутбук Lenovo IdeaPad Slim 3 Gray (82XQ00B5PS)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>39 290 ₽</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5 894</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ноутбук Huawei MateBook D16 MCLF-X Gray (53013WXE)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>62 216 ₽</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>6 222</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ноутбук Huawei MCLF-X Gray (53013WXF)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>65 990 ₽</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products_cashback.xlsx
+++ b/products_cashback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple MacBook Air 13" M1/8Gb/256Gb/Space Gray (MGN63)</t>
+          <t>Беспроводная игровая мышь Razer Basilisk X HyperSpeed черный</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>94 990 ₽</t>
+          <t>4 275 ₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14 249</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -466,37 +466,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ноутбук Lenovo IdeaPad Slim 3 15IRU8 Gray</t>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>40 990 ₽</t>
+          <t>1 774 ₽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2 870</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ноутбук Honor MagicBook X16 2024 DOS Gray (5301AHHP)</t>
+          <t>Беспроводная игровая мышь Razer Basilisk X HyperSpeed черный</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51 490 ₽</t>
+          <t>6 190 ₽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8 239</t>
+          <t>991</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -506,221 +506,2435 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ноутбук Huawei MateBook D14 Gray (53013XET)</t>
+          <t>Игровая мышь Razer DeathAdder Essential White (RZ01-03850200-R3M1)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>56 990 ₽</t>
+          <t>1 808 ₽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ноутбук Honor MagicBook X16 2024 DOS Gray (5301AHHM)</t>
+          <t>Беспроводная игровая мышь Logitech G304 черный (2013LZ04TGD9)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>59 490 ₽</t>
+          <t>3 444 ₽</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ноутбук Apple MacBook Air 13" M1/8Gb/256Gb Silver (MGN93)</t>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>94 420 ₽</t>
+          <t>2 557 ₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14 163</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ноутбук Lenovo IdeaPad Slim 3 15IRU8 Gray</t>
+          <t>Беспроводная мышь Logitech M280 Black (910-004306)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>41 530 ₽</t>
+          <t>1 407 ₽</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6 230</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ноутбук Honor MagicBook X16 2024 DOS Gray (5301AHHP)</t>
+          <t>Беспроводная игровая мышь Razer Basilisk X HyperSpeed черный</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>51 990 ₽</t>
+          <t>7 055 ₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1 059</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ноутбук Acer Extensa EX215-54 Black (NX.EGJER.040)</t>
+          <t>Проводная игровая мышь Logitech G102 Lightsync голубой (910-005857)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>47 100 ₽</t>
+          <t>1 890 ₽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7 536</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ноутбук Huawei MateBook D15 BoM-WFP9 Silver (53013SPN)</t>
+          <t>Игровая мышь Razer DeathAdder Essential White (RZ01-03850200-R3M1)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>65 440 ₽</t>
+          <t>2 762 ₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 544</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ноутбук Chuwi HeroBook Pro Gray</t>
+          <t>Игровая мышь Logitech G502 Hero Black (910-005474)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23 990 ₽</t>
+          <t>4 231 ₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4 079</t>
+          <t>635</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ноутбук Apple MacBook Air 15 15.3" 2023 M2 8/512GB Midnight</t>
+          <t>Беспроводная мышь Solmax SM90023 черный</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>157 786 ₽</t>
+          <t>409 ₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15 779</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ноутбук Huawei MateBook D16 MCLF-X Gray (53013WXE)</t>
+          <t>Игровая мышь A4Tech Bloody V7 Black</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61 839 ₽</t>
+          <t>1 700 ₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6 184</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ноутбук Huawei MateBook D16 MCLF-X Gray (53013WXE)</t>
+          <t>Мышь Apple Magic Mouse 3 MK2E3ZA-A, белая</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>62 204 ₽</t>
+          <t>8 237 ₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6 221</t>
+          <t>1 236</t>
         </is>
       </c>
       <c r="D15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition черный (HLK4041GL)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1 990 ₽</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync Black (910-005823)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1 880 ₽</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2 620 ₽</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M280 Black (910-004306)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1 390 ₽</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Игровая мышь Defender Forced GM-020L Black</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>699 ₽</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V8 Black</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1 541 ₽</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005824)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1 880 ₽</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G502 Hero Black (910-005474)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4 690 ₽</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V7 Black</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1 609 ₽</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Игровая мышь Razer DeathAdder Essential Black (RZ01-03850100-R3M1)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2 502 ₽</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech MX Master 3S белый</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14 770 ₽</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1 477</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition белый (HLK4040GL)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1 196 ₽</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M280 желтый, серый (FK-2703220)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1 780 ₽</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2 620 ₽</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G304 белый (2043LZ0BRZD9)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3 390 ₽</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Razer Basilisk X HyperSpeed черный</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7 060 ₽</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Игровая мышь Razer DeathAdder Essential White (RZ01-03850200-R3M1)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3 735 ₽</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Redragon Griffin wireless черный</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1 711 ₽</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V8 Black</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1 699 ₽</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody W70 Max White</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2 791 ₽</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G502 Hero Black (910-005474)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5 030 ₽</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Проводная/беспроводная игровая мышь Logitech Lightspeed G Pro Black (910-005272)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11 477 ₽</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V7 Black</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2 419 ₽</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Игровая мышь Razer DeathAdder Essential Black (RZ01-03850100-R3M1)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2 878 ₽</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync Black (910-005808)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2 190 ₽</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Мышь Apple Magic Mouse 3 MK2E3ZA-A, белая</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9 790 ₽</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition белый (HLK4040GL)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1 990 ₽</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Мышь Defender Hit MB-530 Black</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>260 ₽</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2 874 ₽</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M170 Black (910-004642)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>928 ₽</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Мышь беспроводная Apple Magic Mouse 3 MK2E3ZM/A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10 462 ₽</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1 780</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Razer Basilisk X HyperSpeed черный</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5 990 ₽</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M235 Gray/Black (910-002201)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1 273 ₽</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody W70 Max White</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2 894 ₽</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Проводная/беспроводная игровая мышь Logitech Lightspeed G Pro Black (910-005272)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9 749 ₽</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1 560</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Проводная мышь Logitech B100 черный (910-006605)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>569 ₽</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V7 Black</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1 700 ₽</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Игровая мышь HyperX Pulsfire Core Black/Red (4P4F8AA)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2 212 ₽</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Мышь Apple Magic Mouse 3 MK2E3ZA-A, белая</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10 500 ₽</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1 680</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition черный (HLK4041GL)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1 270 ₽</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition черный (HLK4041GL)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1 270 ₽</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3 224 ₽</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G304 белый (2043LZ0BRZD9)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3 945 ₽</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Мышь беспроводная Apple Magic Mouse 3 MK2E3ZM/A</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10 225 ₽</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Razer Basilisk X HyperSpeed черный</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9 491 ₽</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1 520</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Logitech G102 Lightsync голубой (910-005857)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3 403 ₽</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Мышь Defender Patch MS-759 Black</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>210 ₽</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Игровая мышь Razer DeathAdder Essential White (RZ01-03850200-R3M1)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2 762 ₽</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G Pro X Superlight черный (910-005884)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>12 790 ₽</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1 024</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M235 Gray/Black (910-002201)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1 550 ₽</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V8 Black</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1 700 ₽</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G502 Hero Black (910-005474)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5 525 ₽</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1 216</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Portable Mouse 2 черный (00-00000455)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1 936 ₽</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Проводная мышь Logitech B100 черный (910-006605)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>638 ₽</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech X7 X-718BK Black</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1 539 ₽</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V7 Black</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1 899 ₽</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync Black (910-005808)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2 789 ₽</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G G304 Lightspeed синий</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3 945 ₽</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Игровая мышь HyperX Pulsfire Core Black/Red (4P4F8AA)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2 212 ₽</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Мышь Apple Magic Mouse 3 MK2E3ZA-A, белая</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12 908 ₽</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2 066</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition черный (HLK4041GL)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1 892 ₽</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M280 желтый, серый (FK-2703220)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1 990 ₽</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Мышь Defender Hit MB-530 Black</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>260 ₽</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3 222 ₽</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Razer Cobra черный (8886419334095)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4 912 ₽</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Logitech G102 Lightsync голубой (910-005857)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5 691 ₽</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Игровая мышь Defender Forced GM-020L Black</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>699 ₽</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Мышь Defender Patch MS-759 Black</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>210 ₽</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Невозможно рассчитать</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G Pro X Superlight черный (910-005884)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>12 790 ₽</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1 919</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M235 Gray/Black (910-002201)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1 711 ₽</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody V8 Black</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2 419 ₽</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005824)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2 990 ₽</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody W70 Max White</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2 999 ₽</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G502 Hero Black (910-005474)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5 525 ₽</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1 216</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Проводная/беспроводная игровая мышь Logitech Lightspeed G Pro Black (910-005272)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>12 945 ₽</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2 072</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody J90s Black</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2 150 ₽</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G304 Lightspeed White</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12 341 ₽</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1 976</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G G304 Lightspeed синий</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>9 491 ₽</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1 520</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Мышь Apple Magic Mouse 3 MK2E3ZA-A, белая</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>10 990 ₽</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь A4Tech Bloody R90 Plus черный</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2 794 ₽</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Мышь OKLICK 385M Red/Black</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>381 ₽</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync Black (910-005823)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2 170 ₽</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition белый (HLK4040GL)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1 495 ₽</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G304 белый (2043LZ0BRZD9)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4 101 ₽</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Мышь беспроводная Apple Magic Mouse 3 MK2E3ZM/A</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>9 700 ₽</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1 552</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Logitech G102 Lightsync голубой (910-005857)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1 690 ₽</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M185 серый (910-002252)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1 141 ₽</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M185 серый (910-002252)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1 141 ₽</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M235 Gray/Black (910-002201)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1 824 ₽</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005824)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2 290 ₽</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody W70 Max White</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3 189 ₽</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G502 Hero Black (910-005474)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>5 561 ₽</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Portable Mouse 2 черный (00-00000455)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1 667 ₽</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Игровая мышь A4Tech Bloody J90s Black</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2 150 ₽</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Razer Viper Ultimate черный (RZ01-03050100-R3G1)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>13 566 ₽</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2 171</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Defender Warlock GM-709L RGB черный</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1 005 ₽</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Игровая мышь Razer DeathAdder Essential Black (RZ01-03850100-R3M1)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3 275 ₽</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech MX Master 3S Black (910-006565)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>12 190 ₽</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Acer OMR020 Black (ZL.MCEEE.006)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>786 ₽</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Игровая мышь HyperX Pulsfire Core Black/Red (4P4F8AA)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2 350 ₽</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь Logitech G304 черный (2013LZ04TGD9)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3 940 ₽</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech MX Master 3S белый</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>17 555 ₽</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2 283</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Беспроводная игровая мышь A4Tech Bloody R90 Plus черный</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2 999 ₽</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync Black (910-005823)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2 222 ₽</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Xiaomi Mi Dual Mode Mouse Silent Edition белый (HLK4040GL)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1 495 ₽</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Logitech G102 Lightsync черный (910-005823)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3 760 ₽</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Игровая мышь Logitech G102 Lightsync White (910-005809)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3 212 ₽</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Беспроводная мышь Logitech M280 Black (910-004306)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3 570 ₽</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Razer Cobra черный (8886419334095)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>4 455 ₽</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Проводная игровая мышь Razer Cobra черный (8886419334095)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>4 455 ₽</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
